--- a/matrice_de_testare.xlsx
+++ b/matrice_de_testare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexIulian\Desktop\facultate\an_2\poo\teme\tema11_colocviu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E75EC-FA49-4281-8719-EB92E3582B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F924CED-3450-4165-B6CD-A3A708E99B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Nr</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>functionarea meniului</t>
+  </si>
+  <si>
+    <t>functionare discount</t>
+  </si>
+  <si>
+    <t>raport financial</t>
+  </si>
+  <si>
+    <t>insucces</t>
   </si>
 </sst>
 </file>
@@ -253,44 +262,44 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,389 +583,416 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
@@ -973,41 +1009,18 @@
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
